--- a/inputs/reliable_stage3_mgs.xlsx
+++ b/inputs/reliable_stage3_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -864,6 +864,9 @@
     <t xml:space="preserve">capacity_genset_kW</t>
   </si>
   <si>
+    <t xml:space="preserve">peak_demand</t>
+  </si>
+  <si>
     <t xml:space="preserve">genset_with_minimal_loading</t>
   </si>
   <si>
@@ -874,9 +877,6 @@
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak_demand</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
@@ -1500,8 +1500,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,7 +1660,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>365</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,8 +1945,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2219,7 +2219,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>98</v>
@@ -2453,7 +2453,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="18" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>98</v>
@@ -2467,7 +2467,7 @@
         <v>144</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>145</v>
@@ -2720,7 +2720,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="18" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>105</v>
@@ -2819,7 +2819,7 @@
         <v>182</v>
       </c>
       <c r="B79" s="18" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>105</v>
@@ -16715,8 +16715,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32162,19 +32162,19 @@
         <v>41</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
@@ -32459,7 +32459,7 @@
         <v>184</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>262</v>
@@ -32483,7 +32483,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>39</v>
@@ -32513,28 +32513,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
@@ -32543,7 +32543,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>184</v>
@@ -32552,19 +32552,19 @@
         <v>184</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AMD30" s="0"/>
       <c r="AME30" s="0"/>
@@ -32585,13 +32585,13 @@
         <v>184</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>184</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>184</v>

--- a/inputs/reliable_stage3_mgs.xlsx
+++ b/inputs/reliable_stage3_mgs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="292">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -459,10 +459,16 @@
     <t xml:space="preserve">pcoupling_oversize_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">price_fuel</t>
+    <t xml:space="preserve">fuel_price</t>
   </si>
   <si>
     <t xml:space="preserve">/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuel_price_change_annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.a.</t>
   </si>
   <si>
     <t xml:space="preserve">project_cost_investment</t>
@@ -1213,12 +1219,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1500,8 +1506,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,7 +1666,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,10 +1949,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2153,7 +2159,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>111</v>
@@ -2299,7 +2305,7 @@
         <v>126</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>127</v>
@@ -2321,7 +2327,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>130</v>
@@ -2398,7 +2404,7 @@
         <v>138</v>
       </c>
       <c r="B41" s="18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>109</v>
@@ -2478,43 +2484,43 @@
         <v>146</v>
       </c>
       <c r="B48" s="18" t="n">
-        <v>20000</v>
+        <v>0.05</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="18" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2528,7 @@
         <v>151</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>1250</v>
+        <v>0.5</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>152</v>
@@ -2533,7 +2539,7 @@
         <v>153</v>
       </c>
       <c r="B53" s="18" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>154</v>
@@ -2544,106 +2550,106 @@
         <v>155</v>
       </c>
       <c r="B54" s="18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="18" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>91</v>
+        <v>162</v>
+      </c>
+      <c r="B60" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" s="10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>91</v>
+        <v>164</v>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>91</v>
@@ -2651,35 +2657,35 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="18" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,29 +2696,29 @@
         <v>1</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B68" s="18" t="n">
-        <v>250</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" s="18" t="n">
-        <v>6.75</v>
+        <v>250</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,18 +2726,18 @@
         <v>173</v>
       </c>
       <c r="B70" s="18" t="n">
-        <v>13.5</v>
+        <v>6.75</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" s="18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>105</v>
@@ -2739,21 +2745,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="28" t="n">
-        <v>0.5</v>
+        <v>177</v>
+      </c>
+      <c r="B73" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>91</v>
@@ -2761,10 +2767,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="18" t="n">
-        <v>0.97</v>
+        <v>178</v>
+      </c>
+      <c r="B74" s="28" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>91</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0.97</v>
@@ -2783,10 +2789,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" s="18" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>91</v>
@@ -2794,65 +2800,65 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" s="18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="18" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="18" t="s">
         <v>184</v>
       </c>
+      <c r="B80" s="18" t="n">
+        <v>13.5</v>
+      </c>
       <c r="C80" s="15" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="18" t="n">
-        <v>1</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" s="18" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>91</v>
@@ -2860,10 +2866,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B83" s="18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>91</v>
@@ -2871,10 +2877,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B84" s="18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>91</v>
@@ -2882,10 +2888,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>91</v>
@@ -2893,7 +2899,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="18" t="n">
         <v>0</v>
@@ -2904,7 +2910,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="18" t="n">
         <v>0</v>
@@ -2915,56 +2921,67 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" s="18" t="n">
-        <v>1100</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" s="18" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3006,7 +3023,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="15"/>
@@ -3022,10 +3039,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -3051,7 +3068,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -3061,10 +3078,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3074,10 +3091,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3087,10 +3104,10 @@
     </row>
     <row r="8" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3109,13 +3126,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3163,7 @@
   <dimension ref="A1:AMI18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3167,7 +3184,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5219,10 +5236,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6248,10 +6265,10 @@
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7277,10 +7294,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8306,10 +8323,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9335,10 +9352,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10364,10 +10381,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -11393,10 +11410,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -12422,10 +12439,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -13451,10 +13468,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -14480,10 +14497,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -16534,31 +16551,31 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>100</v>
@@ -16566,37 +16583,37 @@
       <c r="K14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>126</v>
+      <c r="L14" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>82000</v>
@@ -16605,36 +16622,36 @@
         <v>820</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>10.5038563952271</v>
+        <v>24987.0478276597</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="H16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>105200</v>
@@ -16643,36 +16660,36 @@
         <v>1052</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>6.42973492030263</v>
+        <v>229880.840014469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>86800</v>
@@ -16681,7 +16698,7 @@
         <v>868</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>4.60560151918418</v>
+        <v>164498.064865426</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16715,8 +16732,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18777,10 +18794,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -19804,10 +19821,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20831,10 +20848,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -21858,10 +21875,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -22885,10 +22902,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -23912,10 +23929,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>251</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -24939,10 +24956,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -25966,10 +25983,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -26996,7 +27013,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -28020,10 +28037,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -29047,10 +29064,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -30074,10 +30091,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -32123,28 +32140,28 @@
     </row>
     <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
@@ -32153,7 +32170,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>39</v>
@@ -32162,19 +32179,19 @@
         <v>41</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
@@ -32183,7 +32200,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>39</v>
@@ -32213,28 +32230,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD19" s="0"/>
       <c r="AME19" s="0"/>
@@ -32243,28 +32260,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD20" s="0"/>
       <c r="AME20" s="0"/>
@@ -32273,28 +32290,28 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>270</v>
-      </c>
       <c r="C21" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD21" s="0"/>
       <c r="AME21" s="0"/>
@@ -32303,7 +32320,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>39</v>
@@ -32333,7 +32350,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>39</v>
@@ -32363,28 +32380,28 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD24" s="0"/>
       <c r="AME24" s="0"/>
@@ -32393,28 +32410,28 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD25" s="0"/>
       <c r="AME25" s="0"/>
@@ -32423,7 +32440,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>39</v>
@@ -32453,28 +32470,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD27" s="0"/>
       <c r="AME27" s="0"/>
@@ -32483,7 +32500,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>39</v>
@@ -32513,28 +32530,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
@@ -32543,28 +32560,28 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AMD30" s="0"/>
       <c r="AME30" s="0"/>
@@ -32573,28 +32590,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD31" s="0"/>
       <c r="AME31" s="0"/>
@@ -32633,28 +32650,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -32663,25 +32680,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -32693,7 +32710,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>39</v>
@@ -32723,28 +32740,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>

--- a/inputs/reliable_stage3_mgs.xlsx
+++ b/inputs/reliable_stage3_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="291">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -879,7 +879,7 @@
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
@@ -889,9 +889,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1219,12 +1216,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1506,8 +1503,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1666,7 +1663,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2360,7 +2357,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>113</v>
@@ -2671,7 +2668,7 @@
         <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>113</v>
@@ -2682,7 +2679,7 @@
         <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>91</v>
@@ -16732,8 +16729,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32188,7 +32185,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>41</v>
@@ -32389,16 +32386,16 @@
         <v>272</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>186</v>
@@ -32485,10 +32482,10 @@
         <v>281</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>186</v>
@@ -32671,7 +32668,7 @@
         <v>287</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -32686,19 +32683,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -32740,28 +32737,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>291</v>
-      </c>
       <c r="C36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>
